--- a/src/db/indicadores.xlsx
+++ b/src/db/indicadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sedhuila-my.sharepoint.com/personal/rafael_perez_sedhuila_edu_co/Documents/educacionInformesIndicadores/idicadores2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\seguimiento-proyectos-huila\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{45C6DE3E-97CD-41DF-ACE8-11DBD7F526E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986BD742-B690-46DC-A9B2-B3C8C1F7EA32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8696EC1F-00B3-4C08-BFE4-57ECB776AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,6 +827,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1A067A-2A6F-4C39-8CD8-8E8898C7BE51}" name="tblIndi" displayName="tblIndi" ref="A1:A29" totalsRowShown="0">
   <autoFilter ref="A1:A29" xr:uid="{4F1A067A-2A6F-4C39-8CD8-8E8898C7BE51}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A29">
+    <sortCondition ref="A1:A29"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3B473C22-C098-488A-A5A0-28BC7B41C5EE}" name="INDICADORES"/>
   </tableColumns>
@@ -1134,8 +1137,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,137 +1158,137 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
